--- a/medicine/Premiers secours et secourisme/Croissant-Rouge_tunisien/Croissant-Rouge_tunisien.xlsx
+++ b/medicine/Premiers secours et secourisme/Croissant-Rouge_tunisien/Croissant-Rouge_tunisien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Croissant-Rouge tunisien (CRT) est une association humanitaire tunisienne fondée en 1956, après l'indépendance du pays. Le CRT est l'une des sociétés nationales du Mouvement international de la Croix-Rouge et du Croissant-Rouge.
 </t>
@@ -511,9 +523,11 @@
           <t>Principes et valeurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Elle est basée sur sept principes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Elle est basée sur sept principes :
 l'humanité ;
 l'impartialité ;
 la neutralité ;
@@ -548,9 +562,11 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses objectifs principaux sont[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses objectifs principaux sont :
 le développement des capacités dans le déploiement en cas de catastrophe ;
 la collecte et l'analyse d'informations.
 			Entrée du siège du Croissant-Rouge sur la rue d'Angleterre à Tunis.
